--- a/artifacts/recipes/new_data/allrecipescom/italian/italian_drinks.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/italian/italian_drinks.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699640151-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Italian Drinks</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699640160-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6ZWdt6JfCjmXcdBupgixQoJt2k8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1227x0:1229x2):format(webp)/6950753-6c80ce16b2054c9aae40cc34d7ae9894.jpg"
@@ -201,59 +542,55 @@
 Mexican Affogato</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275589/mexican-affogato/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mexican Affogato</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 scoop chocolate ice cream\n\n\n1 ounce fresh brewed espresso\n\n\n½ ounce tequila (such as Patron Roca®)\n\n\n½ ounce coffee-flavored liqueur (such as Kahlua®)\n\n\n2 tablespoons whipped cream\n\n\n3  chocolate-covered coffee beans"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 scoop chocolate ice cream\n\n\n1 ounce fresh brewed espresso\n\n\n½ ounce tequila (such as Patron Roca®)\n\n\n½ ounce coffee-flavored liqueur (such as Kahlua®)\n\n\n2 tablespoons whipped cream\n\n\n3  chocolate-covered coffee beans'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ice cream in a coffee mug. Stir together hot espresso, tequila, and coffee liqueur in a small glass; pour over ice cream. Top with whipped cream and garnish with chocolate-covered coffee beans."},{"recipe_directions":"Substitute vanilla ice cream, if desired."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"244\nCalories\n\n\n12g \nFat\n\n\n19g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699640165-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zeO9nYg8K1QCnWIzpAW4cpnkkHs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4114242-301502228e69408b87a989a3a66e404a.jpg"
@@ -266,59 +603,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256028/the-brunch-box/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The Brunch Box</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 fluid ounce Montenegro amaro liqueur\n\n\n1 fluid ounce freshly squeezed grapefruit juice\n\n\n5 fluid ounces lager beer, chilled"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 fluid ounce Montenegro amaro liqueur\n\n\n1 fluid ounce freshly squeezed grapefruit juice\n\n\n5 fluid ounces lager beer, chilled'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix amaro and grapefruit juice together in a chilled Collins glass; top with beer."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"110\nCalories\n\n\n0g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699640171-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vtaA7qGChoWqmsGKG0q5vV-LgdA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/694449-16c4b02eca8e40a3849843a80e3ab97a.jpg"
@@ -331,59 +664,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/156405/limoncello-ii/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Limoncello II</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n3 days\n\n\nTotal Time:\n3 days 30 mins\n\n\nServings:\n35 \n\n\nYield:\n70 fluid ounces"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds lemons, zested\n\n\n35 fluid ounces vodka\n\n\n2 pounds white sugar\n\n\n35 fluid ounces water"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds lemons, zested\n\n\n35 fluid ounces vodka\n\n\n2 pounds white sugar\n\n\n35 fluid ounces water'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the lemon zest and vodka in a 2-gallon jar. Cover, and let stand 3 to 4 days at room temperature."},{"recipe_directions":"Remove and discard the lemon zest. Stir in the sugar and water until the sugar has dissolved. Pour into bottles or other containers, and store in the freezer."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"177\nCalories\n\n\n0g \nFat\n\n\n30g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699640176-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CyaE5l2FVTRkjC7KnjXVOCoMZ4Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2118582-8fdae546aba3484ea62c6cc85fbc15b4.jpg"
@@ -396,59 +725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217149/americano-cocktail/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Americano Cocktail</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n3 mins\n\n\nTotal Time:\n3 mins\n\n\nServings:\n1 \n\n\nYield:\n1 cocktail"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups ice\n\n\n1 ½ fluid ounces bitter orange aperitif (such as Campari®)\n\n\n1 ½ fluid ounces sweet vermouth\n\n\n3 ounces club soda, or as needed\n\n\n1 (1 inch) piece orange peel"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups ice\n\n\n1 ½ fluid ounces bitter orange aperitif (such as Campari®)\n\n\n1 ½ fluid ounces sweet vermouth\n\n\n3 ounces club soda, or as needed\n\n\n1 (1 inch) piece orange peel'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add ice to a tall glass. Pour in Campari and vermouth. Stir and top with soda water. Squeeze a twist of orange peel over the drink and drop it in."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"74\nCalories\n\n\n7g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699640183-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mDqGhk-eq-BMSmT3b2Kkn1SE0sM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/536643-e14d3c38337f439497f4983bdfbfa26d.jpg"
@@ -461,59 +786,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/159004/galliano/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Galliano</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n10 days\n\n\nTotal Time:\n10 days 15 mins\n\n\nServings:\n24 \n\n\nYield:\n6 cups"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  whole cloves\n\n\n1 teaspoon chopped crystallized ginger\n\n\n4 cups white sugar\n\n\n12 drops peppermint extract\n\n\n2 teaspoons vanilla extract\n\n\n1 teaspoon anise extract\n\n\n15 drops yellow food coloring\n\n\n2 (750 milliliter) bottles vodka"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  whole cloves\n\n\n1 teaspoon chopped crystallized ginger\n\n\n4 cups white sugar\n\n\n12 drops peppermint extract\n\n\n2 teaspoons vanilla extract\n\n\n1 teaspoon anise extract\n\n\n15 drops yellow food coloring\n\n\n2 (750 milliliter) bottles vodka'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the cloves and ginger in a small jar and add enough vodka to cover. Seal and soak for 3 days. NO MORE! Strain the liquid, discarding the solids."},{"recipe_directions":"Measure the sugar into a gallon container. Add the peppermint, vanilla and anise extracts as well as the food coloring. Pour in the vodka, the strained vodka and yellow food coloring. Cover tightly and shake until the sugar dissolves. Age for one week MINIMUM."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699640190-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/14KRk5rFDy_TKpq9hYyomm_izLo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1013x0:1015x2):format(webp)/5362552-adb084944b0047cd8488c561acdce7d4.jpg"
@@ -526,59 +847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/55483/italian-amaretto-margaritas/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Italian Amaretto Margaritas</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 fluid ounces amaretto liqueur, plus additional\n\n\n  white sugar\n\n\n6 fluid ounces frozen limeade concentrate\n\n\n6 fluid ounces tequila\n\n\n½ cup orange juice\n\n\n6 cups ice"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 fluid ounces amaretto liqueur, plus additional\n\n\n  white sugar\n\n\n6 fluid ounces frozen limeade concentrate\n\n\n6 fluid ounces tequila\n\n\n½ cup orange juice\n\n\n6 cups ice'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dip the rims of 4 margarita glasses in amaretto, then into sugar; set aside. Pour the limeaid, tequila, amaretto, orange juice, and ice into the bowl of a blender. Puree until smooth, then pour into prepared glasses."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699640197-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yk_r7MCZ_jEcfHUaBaDzM_rTzho=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1023x0:1025x2):format(webp)/6954373-282d27f5b6c94850811deb2cb0645849.jpg"
@@ -591,59 +908,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275577/affogato/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Affogato</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 ½ ounces vanilla gelato\n\n\n2 ounces fresh brewed espresso"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 ½ ounces vanilla gelato\n\n\n2 ounces fresh brewed espresso'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place gelato in an old fashioned glass and pour freshly brewed espresso over top. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n7g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699640206-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IrqSK8eRMBRBIxs4ST5AQgtlBu4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/462362-8a351483bfa74b6fb0ab04467c6f779c.jpg"
@@ -656,59 +969,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/155738/italian-amaretto-margaritas-on-the-rocks/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Italian Amaretto Margaritas On the Rocks</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons confectioners' sugar\n\n\n4 cups crushed ice\n\n\n2 cups sweet and sour mix\n\n\n5 fluid ounces tequila\n\n\n5 fluid ounces amaretto (almond-flavored liqueur)\n\n\n2 fluid ounces orange liqueur \n\n\n4 orange slices for garnish\n\n\n4 lime slices for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 tablespoons confectioners' sugar\n\n\n4 cups crushed ice\n\n\n2 cups sweet and sour mix\n\n\n5 fluid ounces tequila\n\n\n5 fluid ounces amaretto (almond-flavored liqueur)\n\n\n2 fluid ounces orange liqueur \n\n\n4 orange slices for garnish\n\n\n4 lime slices for garnish"}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Slightly moisten rims of four 12-ounce glasses and dip in confectioners' sugar to rim the glasses; fill each with crushed ice."},{"recipe_directions":"Combine sweet and sour mix, tequila, amaretto, and orange liqueur in a pitcher; stir. Pour mixture into the prepared glasses. Garnish each drink with orange and lime slices."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699640211-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7mqWL-OcFFC1AnOXymtlsPN_tHE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1752x0:1754x2):format(webp)/7828877-80f862caf26042eb9abb6863a3886098.jpg"
@@ -721,59 +1030,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276059/homemade-italian-cream-soda/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Homemade Italian Cream Soda</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 ounces club soda\n\n\n4 ounces heavy cream\n\n\n4 fluid ounces raspberry syrup\n\n\n2 cups ice cubes, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 ounces club soda\n\n\n4 ounces heavy cream\n\n\n4 fluid ounces raspberry syrup\n\n\n2 cups ice cubes, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together club soda, heavy cream, and raspberry syrup in a pitcher. Fill 2 tall glasses with ice and pour cream mixture on top."},{"recipe_directions":"I have made this recipe for 30 people. It can all be mixed in a punch bowl and people will be coming back for seconds, thirds, and fourths!!"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"416\nCalories\n\n\n21g \nFat\n\n\n57g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699640216-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xXAJxkcHCFkbNCpXgqxh5d-Er_M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/7104250-92aa015ee4534ea7a12f72031c563b41.jpg"
@@ -786,59 +1091,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274212/tuscan-lemonade-cocktail/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Tuscan Lemonade Cocktail</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n8 \n\n\nYield:\n53 fl ounces"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  lemons, thinly sliced\n\n\n1 (12 ounce) can frozen lemonade concentrate, thawed\n\n\n6 fluid ounces lemon-flavored vodka\n\n\n3 fluid ounces limoncello liqueur\n\n\n1 (32 fluid ounce) bottle lemon-flavored sparkling water\n\n\n  ice"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  lemons, thinly sliced\n\n\n1 (12 ounce) can frozen lemonade concentrate, thawed\n\n\n6 fluid ounces lemon-flavored vodka\n\n\n3 fluid ounces limoncello liqueur\n\n\n1 (32 fluid ounce) bottle lemon-flavored sparkling water\n\n\n  ice'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together lemon slices, lemonade concentrate, vodka, and limoncello in a large pitcher. Chill in the refrigerator until ready to serve."},{"recipe_directions":"Add sparkling water to pitcher and serve over ice."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"191\nCalories\n\n\n0g \nFat\n\n\n33g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699640223-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/axbpaNS5i4ByyD0Xw5EyK70OtMI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4x3-GOLDMAN_ALR0323_Mixer_Drinks_4x3_4133-3f77486caf0045b4bb04bef6e62b54cc.jpg"
@@ -852,59 +1153,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214634/sicilian-sunset/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sicilian Sunset</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 cocktails"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups ice cubes\n\n\n1 cup Prosecco (Italian sparkling wine)\n\n\n1 cup orange juice\n\n\n1 cup cranberry juice\n\n\n2  lemons, zested"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups ice cubes\n\n\n1 cup Prosecco (Italian sparkling wine)\n\n\n1 cup orange juice\n\n\n1 cup cranberry juice\n\n\n2  lemons, zested'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ice in a glass pitcher. Pour in prosecco, orange juice, and cranberry juice; stir. Pour cocktail into champagne flutes, and sprinkle with lemon zest to serve."},{"recipe_directions":"Please note differences in ingredient amounts and servings when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Cocktail Recipes"},{"recipe_tags":"Champagne Drinks Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699640231-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0rk02eVT8eYXVWAXZpeM7daXako=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1144x0:1146x2):format(webp)/8145443-2ff858c70e42478c8cd0b9db800e1dcd.jpg"
@@ -917,59 +1214,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223478/strawberry-bellini/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Strawberry Bellini</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups strawberries, hulled and sliced\n\n\n¼ cup confectioners' sugar\n\n\n1 tablespoon brandy\n\n\n1 ½ cups chilled sparkling wine\n\n\n3 large whole strawberries"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "3 cups strawberries, hulled and sliced\n\n\n¼ cup confectioners' sugar\n\n\n1 tablespoon brandy\n\n\n1 ½ cups chilled sparkling wine\n\n\n3 large whole strawberries"}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend hulled strawberries, confectioners' sugar, and brandy in a blender until smooth. Chill in the refrigerator for 10 minutes."},{"recipe_directions":"Divide the strawberry mixture among three champagne flutes. Pour 1/2 cup sparkling wine into each flute and stir to combine. Garnish each glass with a whole strawberry."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"298\nCalories\n\n\n1g \nFat\n\n\n38g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699640237-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NRBVwb4k8qJN6n77_C24rdJy0zI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/477083-4b9c142ac00c407fb499415ad7c1b949.jpg"
@@ -982,59 +1275,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21590/negroni-cocktail-i/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Negroni Cocktail</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nTotal Time:\n2 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ fluid ounce campari\n\n\n¾ fluid ounce gin\n\n\n¾ fluid ounce sweet vermouth\n\n\n2 fluid ounces carbonated water\n\n\n1 wedge lemon, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ fluid ounce campari\n\n\n¾ fluid ounce gin\n\n\n¾ fluid ounce sweet vermouth\n\n\n2 fluid ounces carbonated water\n\n\n1 wedge lemon, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a rocks glass over ice, combine Campari, gin, and sweet vermouth. Add carbonated water and garnish with lemon wedge."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699640247-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FvGrmQWchBvormcLJ567pCM1AdQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/228767PeachBelliniChefMo4x3-8bc8ede65d104c5bab72f7aa4a1d4850.jpg"
@@ -1048,59 +1337,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228767/peach-bellini/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Peach Bellini</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 champagne cocktail"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup pureed peaches\n\n\n4 fluid ounces champagne\n\n\n1  peach slice"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup pureed peaches\n\n\n4 fluid ounces champagne\n\n\n1  peach slice'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour peach puree into a champagne flute; add champagne. Garnish with a slice of peach."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n11g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699640254-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IHmgON9FuUm7a07wgfv2O6bVmSo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/14155-b6efaf9ef39944d98142036857f4860b.jpg"
@@ -1113,59 +1398,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18943/italian-cream-soda/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Italian Cream Soda</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n1 mins\n\n\nTotal Time:\n1 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 fluid ounces carbonated water\n\n\n¾ fluid ounce passion fruit flavored syrup\n\n\n¾ fluid ounce watermelon flavored syrup\n\n\n1 fluid ounce half-and-half cream"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 fluid ounces carbonated water\n\n\n¾ fluid ounce passion fruit flavored syrup\n\n\n¾ fluid ounce watermelon flavored syrup\n\n\n1 fluid ounce half-and-half cream'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a tall glass half full with ice. Fill to 2/3 with carbonated water. Pour in watermelon and passion fruit flavored syrups, then float the half-and-half cream on top. Stir when ready to drink."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"190\nCalories\n\n\n4g \nFat\n\n\n42g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699640261-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0AAOdjKCk0U9M11P-Ea5gIgNcOc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/69992-f15232c506974ec4bcc8d17796e9c3a8.jpg"
@@ -1178,59 +1459,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/153829/italian-wedding-cake-martini/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Italian Wedding Cake Martini</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 cocktail"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 fluid ounces vanilla vodka\n\n\n1 fluid ounce cranberry juice\n\n\n1 fluid ounce pineapple juice\n\n\n½ fluid ounce amaretto (almond flavored liqueur)\n\n\n½ fluid ounce white creme de cacao"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 fluid ounces vanilla vodka\n\n\n1 fluid ounce cranberry juice\n\n\n1 fluid ounce pineapple juice\n\n\n½ fluid ounce amaretto (almond flavored liqueur)\n\n\n½ fluid ounce white creme de cacao'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour the vodka, cranberry juice, pineapple juice, amaretto, and creme de cacao into a cocktail shaker over ice. Cover, and shake until the outside of the shaker has frosted. Strain into a chilled martini glass to serve."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699640268-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aeoN_Mg_MXpGSoQh7PXzDodFMvU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/967916-02291b9100c6409d9ca0021f200beb69.jpg"
@@ -1243,59 +1520,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/204996/creamy-limoncello/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Creamy Limoncello</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 days 2 hrs\n\n\nTotal Time:\n5 days 2 hrs 20 mins\n\n\nServings:\n20 \n\n\nYield:\n2 quarts"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  lemons, zested\n\n\n3 cups vodka\n\n\n2 quarts 2% reduced fat milk\n\n\n2 cups white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  lemons, zested\n\n\n3 cups vodka\n\n\n2 quarts 2% reduced fat milk\n\n\n2 cups white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine lemon zest and vodka in an airtight container. Cover and place in a cool, dark space, shaking the container to redistribute the lemon zest once a day for 5 days."},{"recipe_directions":"Pour milk and sugar into a large pot and bringing to a low boil, stirring often, until the sugar has dissolved. Remove from heat and allow milk mixture to cool to room temperature. Slowly strain vodka mixture into the milk using a sieve. Discard the lemon zest. Pour limoncello into a capped bottle and place in the freezer to chill for 1 hour. Serve cold."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699640274-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hPiuESQ1lWiOcW11h2w6wqltlpk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4207997-cioccolata-calda-hot-chocolate-italian-style-photo-by-buckwheat-queen-ab4a76525c9f4385ad3c2cc200fb4e47.jpg"
@@ -1309,59 +1582,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216167/cioccolata-calda-hot-chocolate-italian-style/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Cioccolata Calda (Hot Chocolate Italian-Style)</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons cocoa powder\n\n\n1 ½ tablespoons white sugar\n\n\n1 ½ cups milk\n\n\n2 tablespoons milk\n\n\n1 tablespoon cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons cocoa powder\n\n\n1 ½ tablespoons white sugar\n\n\n1 ½ cups milk\n\n\n2 tablespoons milk\n\n\n1 tablespoon cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix the cocoa powder and sugar together in a small saucepan. Stir the 1 1/2 cups milk into the saucepan until the sugar has dissolved. Place over low heat; slowly bring the mixture to a low simmer."},{"recipe_directions":"Whisk 2 tablespoons of milk together with the cornstarch in a small cup; slowly whisk the cornstarch slurry into the cocoa mixture. Continue cooking, whisking continually, until the hot chocolate reaches a pudding-like thickness, 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n5g \nFat\n\n\n27g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699640278-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17551/world-cuisine/european/italian/drinks/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k7qil8kaiN6hI0VIZwB2Jieb6Po=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/5858693-8cea07bde0164cbf85fded8c64d21c0a.jpg"
@@ -1374,42 +1643,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258763/traditional-italian-limoncello/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Traditional Italian Limoncello</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n21 days 10 mins\n\n\nTotal Time:\n21 days 30 mins\n\n\nServings:\n32 \n\n\nYield:\n1 quart"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10  lemons\n\n\n1 quart 95% alcohol (190 proof) \n\n\n6 cups water\n\n\n4 cups white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  lemons\n\n\n1 quart 95% alcohol (190 proof) \n\n\n6 cups water\n\n\n4 cups white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Zest lemons, making sure to get the outermost part of the skin and avoid the white pith."},{"recipe_directions":"Place lemon zest in a glass bowl and cover with alcohol. Cover and let infuse at room temperature until yellowish in color, about 7 days."},{"recipe_directions":"Bring water and sugar to the boil in a saucepan, stirring until sugar dissolves. Remove syrup from heat and let cool, about 10 minutes."},{"recipe_directions":"Pour alcohol into the syrup through a fine-mesh strainer; discard lemon zest. Stir well."},{"recipe_directions":"Pour limoncello into thick, freezer-safe glass bottles. Store in the freezer for at least 2 weeks before serving."},{"recipe_directions":"Ideally you would use Sorrento PGI (Protected Geographical Indication) lemons. If you can't find them, make sure to select large, ripe, flavorful lemons, all the better if unwaxed and organic."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n25g \nCarbs"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>